--- a/experiments/Online Graphs.xlsx
+++ b/experiments/Online Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\PycharmProjects\Conformant-CBS\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA876E2-D002-4B13-B552-375A5C39A5A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340A9FD7-ECCE-4811-8F5E-9842D7C5EB72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>Row Labels</t>
   </si>
@@ -118,7 +118,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -2385,6 +2394,36 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Final uncertainty for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> uncertainty=2, with communication </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2585,6 +2624,63 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2597,7 +2693,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reduction in tu from sensing'!$B$3</c:f>
+              <c:f>'Reduction in tu from sensing'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2676,7 +2772,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Reduction in tu from sensing'!$A$4:$A$34</c:f>
+              <c:f>'Reduction in tu from sensing'!$A$5:$A$35</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="25"/>
                 <c:lvl>
@@ -2778,81 +2874,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reduction in tu from sensing'!$B$4:$B$34</c:f>
+              <c:f>'Reduction in tu from sensing'!$B$5:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8200000000000003</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.86</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5400000000000009</c:v>
+                  <c:v>5.98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.46</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1199999999999999</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.159999999999997</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.620000000000001</c:v>
+                  <c:v>5.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.06</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.880000000000003</c:v>
+                  <c:v>21.12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.64</c:v>
+                  <c:v>7.88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.02</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.74</c:v>
+                  <c:v>24.26</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.02</c:v>
+                  <c:v>9.26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9399999999999995</c:v>
+                  <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8399999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2995,37 +3091,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3073,7 +3138,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -8007,7 +8071,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F2F3264-90ED-47B8-B336-7337523673ED}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F2F3264-90ED-47B8-B336-7337523673ED}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -8122,7 +8186,7 @@
     <dataField name="Max SOC" fld="12" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8131,7 +8195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8174,7 +8238,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9617400F-DC67-47D6-947E-B004E6EC969B}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9617400F-DC67-47D6-947E-B004E6EC969B}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -8334,7 +8398,7 @@
     <dataField name="Sum of Final True Cost" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8362,11 +8426,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0543B570-5FA0-4C09-8988-9FE1DD8E45D0}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0543B570-5FA0-4C09-8988-9FE1DD8E45D0}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
         <item x="0"/>
@@ -8512,14 +8584,15 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
     <pageField fld="3" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Final Uncertainty" fld="13" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9249,7 +9322,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683C7E5-6107-473B-8814-BF164CE1C85F}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
@@ -9258,7 +9331,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
@@ -9272,25 +9346,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>24.78</v>
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0</v>
+      <c r="A5" s="2">
+        <v>2</v>
       </c>
       <c r="B5" s="4">
         <v>15</v>
@@ -9298,234 +9372,242 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B7" s="4">
-        <v>2.8200000000000003</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B8" s="4">
-        <v>0.86</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B9" s="4">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>3</v>
+      <c r="A10" s="3">
+        <v>1</v>
       </c>
       <c r="B10" s="4">
-        <v>34.979999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0</v>
+      <c r="A11" s="2">
+        <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>20.86</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
-        <v>9.5400000000000009</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B13" s="4">
-        <v>3.46</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B14" s="4">
-        <v>1.1199999999999999</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>4</v>
+      <c r="A16" s="3">
+        <v>1</v>
       </c>
       <c r="B16" s="4">
-        <v>40.900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>0</v>
+      <c r="A17" s="2">
+        <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>26.159999999999997</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B18" s="4">
-        <v>9.620000000000001</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B19" s="4">
-        <v>4.0599999999999996</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B20" s="4">
-        <v>1.06</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B21" s="4">
-        <v>0</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>5</v>
+      <c r="A22" s="3">
+        <v>1</v>
       </c>
       <c r="B22" s="4">
-        <v>52.040000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>0</v>
+      <c r="A23" s="2">
+        <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>31.880000000000003</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B24" s="4">
-        <v>12.64</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B25" s="4">
-        <v>6.02</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B26" s="4">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B27" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>6</v>
+      <c r="A28" s="3">
+        <v>1</v>
       </c>
       <c r="B28" s="4">
-        <v>58.540000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>0</v>
+      <c r="A29" s="2">
+        <v>6</v>
       </c>
       <c r="B29" s="4">
-        <v>36.74</v>
+        <v>38.480000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B30" s="4">
-        <v>14.02</v>
+        <v>24.26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B31" s="4">
-        <v>5.9399999999999995</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B32" s="4">
-        <v>1.8399999999999999</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B33" s="4">
         <v>1</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3">
         <v>1</v>
       </c>
       <c r="B34" s="4">
-        <v>211.24000000000004</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4">
+        <v>135.94</v>
       </c>
     </row>
   </sheetData>
